--- a/espn_scrapper/IPL/Chennai Super Kings/Ravindra Jadeja .xlsx
+++ b/espn_scrapper/IPL/Chennai Super Kings/Ravindra Jadeja .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -822,9 +822,254 @@
         <v>142.85</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve"> Oct 17 2020</v>
+      </c>
+      <c r="B13" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Capitals won by 5 wickets (with 1 ball remaining)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="F13" t="str">
+        <v xml:space="preserve">Ravindra Jadeja </v>
+      </c>
+      <c r="G13" t="str">
+        <v>33</v>
+      </c>
+      <c r="H13" t="str">
+        <v>13</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <v>4</v>
+      </c>
+      <c r="K13" t="str">
+        <v>253.84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve"> Oct 19 2020</v>
+      </c>
+      <c r="B14" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Royals won by 7 wickets (with 15 balls remaining)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F14" t="str">
+        <v xml:space="preserve">Ravindra Jadeja </v>
+      </c>
+      <c r="G14" t="str">
+        <v>35</v>
+      </c>
+      <c r="H14" t="str">
+        <v>30</v>
+      </c>
+      <c r="I14" t="str">
+        <v>4</v>
+      </c>
+      <c r="J14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v>116.66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve"> Oct 23 2020</v>
+      </c>
+      <c r="B15" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Mumbai won by 10 wickets (with 46 balls remaining)</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F15" t="str">
+        <v xml:space="preserve">Ravindra Jadeja </v>
+      </c>
+      <c r="G15" t="str">
+        <v>7</v>
+      </c>
+      <c r="H15" t="str">
+        <v>6</v>
+      </c>
+      <c r="I15" t="str">
+        <v>1</v>
+      </c>
+      <c r="J15" t="str">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <v>116.66</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve"> Oct 13 2020</v>
+      </c>
+      <c r="B16" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Super Kings won by 20 runs</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F16" t="str">
+        <v xml:space="preserve">Ravindra Jadeja </v>
+      </c>
+      <c r="G16" t="str">
+        <v>25</v>
+      </c>
+      <c r="H16" t="str">
+        <v>10</v>
+      </c>
+      <c r="I16" t="str">
+        <v>3</v>
+      </c>
+      <c r="J16" t="str">
+        <v>1</v>
+      </c>
+      <c r="K16" t="str">
+        <v>250.00</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve"> Oct 29 2020</v>
+      </c>
+      <c r="B17" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Super Kings won by 6 wickets</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="F17" t="str">
+        <v xml:space="preserve">Ravindra Jadeja </v>
+      </c>
+      <c r="G17" t="str">
+        <v>31</v>
+      </c>
+      <c r="H17" t="str">
+        <v>11</v>
+      </c>
+      <c r="I17" t="str">
+        <v>2</v>
+      </c>
+      <c r="J17" t="str">
+        <v>3</v>
+      </c>
+      <c r="K17" t="str">
+        <v>281.81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve"> Sep 22 2020</v>
+      </c>
+      <c r="B18" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Royals won by 16 runs</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F18" t="str">
+        <v xml:space="preserve">Ravindra Jadeja </v>
+      </c>
+      <c r="G18" t="str">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <v>2</v>
+      </c>
+      <c r="I18" t="str">
+        <v>0</v>
+      </c>
+      <c r="J18" t="str">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <v>50.00</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve"> Oct 10 2020</v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C19" t="str">
+        <v>RCB won by 37 runs</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="F19" t="str">
+        <v xml:space="preserve">Ravindra Jadeja </v>
+      </c>
+      <c r="G19" t="str">
+        <v>7</v>
+      </c>
+      <c r="H19" t="str">
+        <v>6</v>
+      </c>
+      <c r="I19" t="str">
+        <v>1</v>
+      </c>
+      <c r="J19" t="str">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <v>116.66</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K19"/>
   </ignoredErrors>
 </worksheet>
 </file>